--- a/va_facility_data_2025-02-20/Sidney VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sidney%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sidney VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sidney%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2c3eeca823004139a184c52e6a0e5807"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R945ae4e0b61046529b8b4fc9099aabbe"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a5a719a60e74f27976f7f040a5ab9aa"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4d4953f31d814eee839fa3b0a1cfe0b1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8e33c7d6b47e40349d2d71b9eb1fcfa9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2924c5d662704d78950aff15755fbdfa"/>
   </x:sheets>
 </x:workbook>
 </file>
